--- a/uploads/format/Format_LRA.xlsx
+++ b/uploads/format/Format_LRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prp2pemkab\uploads\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF21A99-2B31-496C-896E-30DD9BD7871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F24E268-E5AA-4F9D-A956-CAB872FAEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,13 +115,13 @@
     <t>REALISASI</t>
   </si>
   <si>
-    <t>PEMERINTAH KABUPATEN SIMALUNGUN</t>
+    <t>PEMERINTAH KABUPATEN MANDAILING NATAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
@@ -217,7 +217,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -236,29 +236,38 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -267,25 +276,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,13 +371,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>42392</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>21108</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -409,14 +403,12 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="749300" y="381000"/>
-          <a:ext cx="552450" cy="704850"/>
+          <a:off x="769358" y="381000"/>
+          <a:ext cx="517371" cy="705507"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -806,7 +798,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:S9"/>
+      <selection activeCell="E5" sqref="E5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.81640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -833,61 +825,61 @@
     </row>
     <row r="2" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -903,17 +895,17 @@
       <c r="J8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="16" t="s">
@@ -927,17 +919,17 @@
       <c r="J9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="16" t="s">
@@ -951,395 +943,365 @@
       <c r="J10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
     </row>
     <row r="11" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-    </row>
+    <row r="13" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="18" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="Q14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="7" t="s">
+      <c r="R14" s="20"/>
+      <c r="S14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="8"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="7"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="4:21" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="5">
         <f>SUM(Q19:Q21)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="10">
         <f>SUM(R19:S21)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
-      <c r="R19" s="13">
-        <v>0</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
     </row>
     <row r="20" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="5">
         <v>0</v>
       </c>
-      <c r="R20" s="13">
-        <v>0</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
     </row>
     <row r="21" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="5">
         <v>0</v>
       </c>
-      <c r="R21" s="13">
-        <v>0</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+      <c r="R21" s="10">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
     </row>
     <row r="22" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="5">
         <f>SUM(Q23:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="10">
         <f>SUM(R23:S26)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
     </row>
     <row r="23" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="5">
         <v>0</v>
       </c>
-      <c r="R23" s="13">
-        <v>0</v>
-      </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
     </row>
     <row r="24" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="5">
         <v>0</v>
       </c>
-      <c r="R24" s="13">
-        <v>0</v>
-      </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
+      <c r="R24" s="10">
+        <v>0</v>
+      </c>
+      <c r="S24" s="10"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
     </row>
     <row r="25" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="5">
         <v>0</v>
       </c>
-      <c r="R25" s="13">
-        <v>0</v>
-      </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
     </row>
     <row r="26" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="5">
         <v>0</v>
       </c>
-      <c r="R26" s="13">
-        <v>0</v>
-      </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
     </row>
     <row r="27" spans="4:21" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="4:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-    </row>
-    <row r="30" spans="4:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
     </row>
     <row r="31" spans="4:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
     </row>
     <row r="32" spans="4:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:O15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:O18"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="I25:O25"/>
     <mergeCell ref="I24:O24"/>
@@ -1356,24 +1318,11 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:O15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="R24:S24"/>

--- a/uploads/format/Format_LRA.xlsx
+++ b/uploads/format/Format_LRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prp2pemkab\uploads\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F24E268-E5AA-4F9D-A956-CAB872FAEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB01AD-667A-41F6-BAF5-EF254C7E5B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>REALISASI</t>
   </si>
   <si>
-    <t>PEMERINTAH KABUPATEN MANDAILING NATAL</t>
+    <t>PEMERINTAH KABUPATEN PAKPAK BHARAT</t>
   </si>
 </sst>
 </file>
@@ -245,41 +245,41 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,14 +372,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>42392</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>21108</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>100723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -407,8 +407,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="769358" y="381000"/>
-          <a:ext cx="517371" cy="705507"/>
+          <a:off x="769358" y="447547"/>
+          <a:ext cx="517371" cy="625383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,7 +798,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:S5"/>
+      <selection activeCell="E4" sqref="E4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.81640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -825,184 +825,184 @@
     </row>
     <row r="2" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="Q14" s="20" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="Q14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="20"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,280 +1010,308 @@
     </row>
     <row r="17" spans="4:21" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="5">
         <f>SUM(Q19:Q21)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="13">
         <f>SUM(R19:S21)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="10"/>
+      <c r="S18" s="13"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
-      <c r="R19" s="10">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10"/>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="5">
         <v>0</v>
       </c>
-      <c r="R20" s="10">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10"/>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
+      <c r="S20" s="13"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
     </row>
     <row r="21" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="5">
         <v>0</v>
       </c>
-      <c r="R21" s="10">
-        <v>0</v>
-      </c>
-      <c r="S21" s="10"/>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="13"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
     <row r="22" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="5">
         <f>SUM(Q23:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="13">
         <f>SUM(R23:S26)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="10"/>
+      <c r="S22" s="13"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
     </row>
     <row r="23" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="5">
         <v>0</v>
       </c>
-      <c r="R23" s="10">
-        <v>0</v>
-      </c>
-      <c r="S23" s="10"/>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="5">
         <v>0</v>
       </c>
-      <c r="R24" s="10">
-        <v>0</v>
-      </c>
-      <c r="S24" s="10"/>
+      <c r="R24" s="13">
+        <v>0</v>
+      </c>
+      <c r="S24" s="13"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="5">
         <v>0</v>
       </c>
-      <c r="R25" s="10">
-        <v>0</v>
-      </c>
-      <c r="S25" s="10"/>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
     <row r="26" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="5">
         <v>0</v>
       </c>
-      <c r="R26" s="10">
-        <v>0</v>
-      </c>
-      <c r="S26" s="10"/>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
+      <c r="S26" s="13"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
     <row r="27" spans="4:21" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="4:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
     </row>
     <row r="31" spans="4:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
     </row>
     <row r="32" spans="4:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="E3:S3"/>
+    <mergeCell ref="E4:S4"/>
+    <mergeCell ref="E5:S5"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:O15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="R18:S18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="I19:O19"/>
     <mergeCell ref="D26:F26"/>
@@ -1297,37 +1325,9 @@
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="I21:O21"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:O15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="R18:S18"/>
     <mergeCell ref="I25:O25"/>
     <mergeCell ref="I24:O24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="E3:S3"/>
-    <mergeCell ref="E4:S4"/>
-    <mergeCell ref="E5:S5"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R22:S22"/>
   </mergeCells>
   <pageMargins left="0.16597222222222222" right="0.16597222222222222" top="0.16597222222222222" bottom="0.16597222222222222" header="0" footer="0"/>
   <pageSetup paperSize="10000" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
